--- a/data/population_models/models_output_kriegberg_male.xlsx
+++ b/data/population_models/models_output_kriegberg_male.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,17 +412,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -432,39 +432,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>216.806024159292</v>
+        <v>201.4552237288136</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6834870325867971</v>
+        <v>0.4823669828846306</v>
       </c>
       <c r="J2">
-        <v>-353.81676</v>
+        <v>-356.97617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -474,39 +474,39 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>220.410184159292</v>
+        <v>202.8881118803419</v>
       </c>
       <c r="H3">
-        <v>3.604159999999979</v>
+        <v>1.432888151528317</v>
       </c>
       <c r="I3">
-        <v>0.1127448931637517</v>
+        <v>0.2356296102047661</v>
       </c>
       <c r="J3">
-        <v>-350.21261</v>
+        <v>-357.8982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -516,39 +516,39 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>221.8283724561404</v>
+        <v>203.5945418803419</v>
       </c>
       <c r="H4">
-        <v>5.022348296848321</v>
+        <v>2.139318151528329</v>
       </c>
       <c r="I4">
-        <v>0.05548060695664649</v>
+        <v>0.1655124012222947</v>
       </c>
       <c r="J4">
-        <v>-346.27058</v>
+        <v>-357.19177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -558,39 +558,39 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>222.6396442857143</v>
+        <v>205.2442520689655</v>
       </c>
       <c r="H5">
-        <v>5.833620126422232</v>
+        <v>3.789028340151958</v>
       </c>
       <c r="I5">
-        <v>0.03698075420514</v>
+        <v>0.07254383715556603</v>
       </c>
       <c r="J5">
-        <v>-350.55205</v>
+        <v>-357.93758</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -600,23 +600,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>222.8533842857143</v>
+        <v>207.8367837288136</v>
       </c>
       <c r="H6">
-        <v>6.047360126422234</v>
+        <v>6.381560000000007</v>
       </c>
       <c r="I6">
-        <v>0.03323247700107034</v>
+        <v>0.01984446644251174</v>
       </c>
       <c r="J6">
-        <v>-350.3383</v>
+        <v>-350.59461</v>
       </c>
     </row>
     <row r="7">
@@ -627,12 +627,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,23 +642,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>223.368534159292</v>
+        <v>211.0606633333333</v>
       </c>
       <c r="H7">
-        <v>6.562510000000003</v>
+        <v>9.605439604519773</v>
       </c>
       <c r="I7">
-        <v>0.02568616920755119</v>
+        <v>0.003958975965961492</v>
       </c>
       <c r="J7">
-        <v>-347.25425</v>
+        <v>-342.77864</v>
       </c>
     </row>
     <row r="8">
@@ -669,12 +669,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,39 +684,39 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>224.349534159292</v>
+        <v>211.6109540336134</v>
       </c>
       <c r="H8">
-        <v>7.543509999999998</v>
+        <v>10.15573030479987</v>
       </c>
       <c r="I8">
-        <v>0.01572815917609725</v>
+        <v>0.003006690725581729</v>
       </c>
       <c r="J8">
-        <v>-346.27326</v>
+        <v>-344.50511</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -726,39 +726,39 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F9">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>224.7457246153846</v>
+        <v>212.0566637288136</v>
       </c>
       <c r="H9">
-        <v>7.939700456092567</v>
+        <v>10.60144</v>
       </c>
       <c r="I9">
-        <v>0.0129016789732404</v>
+        <v>0.002406047114941718</v>
       </c>
       <c r="J9">
-        <v>-370.77564</v>
+        <v>-346.37473</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>~temp + wind + sundur</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -768,39 +768,39 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>225.2190309009009</v>
+        <v>212.5998140336134</v>
       </c>
       <c r="H10">
-        <v>8.413006741608854</v>
+        <v>11.14459030479986</v>
       </c>
       <c r="I10">
-        <v>0.01018284369128579</v>
+        <v>0.001833836182326096</v>
       </c>
       <c r="J10">
-        <v>-350.58784</v>
+        <v>-343.51625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -810,39 +810,39 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>225.9020642857143</v>
+        <v>212.6593240336134</v>
       </c>
       <c r="H11">
-        <v>9.096040126422253</v>
+        <v>11.20410030479988</v>
       </c>
       <c r="I11">
-        <v>0.00723686151998386</v>
+        <v>0.001780074197156182</v>
       </c>
       <c r="J11">
-        <v>-347.28962</v>
+        <v>-343.45674</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>~temp + wind + sundur</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -852,34 +852,34 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>227.4112709009009</v>
+        <v>212.7053640336134</v>
       </c>
       <c r="H12">
-        <v>10.60524674160885</v>
+        <v>11.25014030479988</v>
       </c>
       <c r="I12">
-        <v>0.003402751309632458</v>
+        <v>0.001739564939566861</v>
       </c>
       <c r="J12">
-        <v>-348.39561</v>
+        <v>-343.41069</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -894,39 +894,39 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>228.7440142857143</v>
+        <v>213.1537737288136</v>
       </c>
       <c r="H13">
-        <v>11.93799012642225</v>
+        <v>11.69855000000001</v>
       </c>
       <c r="I13">
-        <v>0.001747546179297515</v>
+        <v>0.001390175780072264</v>
       </c>
       <c r="J13">
-        <v>-344.44767</v>
+        <v>-345.27762</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -936,39 +936,39 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>231.841584159292</v>
+        <v>213.2427537288136</v>
       </c>
       <c r="H14">
-        <v>15.03556</v>
+        <v>11.78753</v>
       </c>
       <c r="I14">
-        <v>0.0003713640925453444</v>
+        <v>0.001329682510238859</v>
       </c>
       <c r="J14">
-        <v>-338.78121</v>
+        <v>-345.18865</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -978,39 +978,39 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F15">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>232.2186952380953</v>
+        <v>213.2902140336134</v>
       </c>
       <c r="H15">
-        <v>15.41267107880321</v>
+        <v>11.83499030479987</v>
       </c>
       <c r="I15">
-        <v>0.0003075468469629007</v>
+        <v>0.001298500383200642</v>
       </c>
       <c r="J15">
-        <v>-360.32538</v>
+        <v>-342.82584</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1020,39 +1020,39 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>233.9082342857143</v>
+        <v>213.7990137288136</v>
       </c>
       <c r="H16">
-        <v>17.10221012642225</v>
+        <v>12.34379000000001</v>
       </c>
       <c r="I16">
-        <v>0.0001321394625980715</v>
+        <v>0.001006833441771545</v>
       </c>
       <c r="J16">
-        <v>-339.28345</v>
+        <v>-344.63239</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1062,39 +1062,39 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>234.0796142857143</v>
+        <v>214.3622218803419</v>
       </c>
       <c r="H17">
-        <v>17.27359012642225</v>
+        <v>12.90699815152831</v>
       </c>
       <c r="I17">
-        <v>0.0001212880020498705</v>
+        <v>0.0007597287053050968</v>
       </c>
       <c r="J17">
-        <v>-339.11207</v>
+        <v>-346.4241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1104,29 +1104,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F18">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>235.1360346153846</v>
+        <v>214.8212237288136</v>
       </c>
       <c r="H18">
-        <v>18.33001045609257</v>
+        <v>13.36600000000001</v>
       </c>
       <c r="I18">
-        <v>7.151861281008221E-05</v>
+        <v>0.0006039313174349206</v>
       </c>
       <c r="J18">
-        <v>-360.38532</v>
+        <v>-343.61017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1146,39 +1146,39 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F19">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>235.4181746153846</v>
+        <v>215.1235033333333</v>
       </c>
       <c r="H19">
-        <v>18.61215045609256</v>
+        <v>13.66827960451977</v>
       </c>
       <c r="I19">
-        <v>6.210880304461713E-05</v>
+        <v>0.0005192163607498475</v>
       </c>
       <c r="J19">
-        <v>-360.10318</v>
+        <v>-338.71581</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1188,39 +1188,39 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F20">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>236.4132854368932</v>
+        <v>215.2529318803419</v>
       </c>
       <c r="H20">
-        <v>19.60726127760117</v>
+        <v>13.79770815152833</v>
       </c>
       <c r="I20">
-        <v>3.776309579793231E-05</v>
+        <v>0.0004866797955601426</v>
       </c>
       <c r="J20">
-        <v>-362.14318</v>
+        <v>-345.53338</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1230,29 +1230,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F21">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>236.5101654368932</v>
+        <v>215.5065137288136</v>
       </c>
       <c r="H21">
-        <v>19.70414127760117</v>
+        <v>14.05128999999999</v>
       </c>
       <c r="I21">
-        <v>3.597744894898841E-05</v>
+        <v>0.000428724910341061</v>
       </c>
       <c r="J21">
-        <v>-362.04629</v>
+        <v>-342.92488</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1272,39 +1272,39 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F22">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>238.9410854368932</v>
+        <v>215.7008240336134</v>
       </c>
       <c r="H22">
-        <v>22.13506127760118</v>
+        <v>14.24560030479986</v>
       </c>
       <c r="I22">
-        <v>1.06699600812253E-05</v>
+        <v>0.0003890315035048822</v>
       </c>
       <c r="J22">
-        <v>-359.61538</v>
+        <v>-340.41523</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>~temp + wind + sundur</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1314,39 +1314,39 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <v>239.4413080392157</v>
+        <v>216.4324440336135</v>
       </c>
       <c r="H23">
-        <v>22.63528387992366</v>
+        <v>14.97722030479989</v>
       </c>
       <c r="I23">
-        <v>8.308848430653291E-06</v>
+        <v>0.0002698457032526875</v>
       </c>
       <c r="J23">
-        <v>-362.20976</v>
+        <v>-339.68361</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1356,39 +1356,39 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~time)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G24">
-        <v>239.6991846153846</v>
+        <v>216.5005537288136</v>
       </c>
       <c r="H24">
-        <v>22.89316045609257</v>
+        <v>15.04533000000001</v>
       </c>
       <c r="I24">
-        <v>7.303712166369592E-06</v>
+        <v>0.0002608108621707559</v>
       </c>
       <c r="J24">
-        <v>-355.82217</v>
+        <v>-341.93084</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1398,39 +1398,39 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F25">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>239.9811346153846</v>
+        <v>218.8620140336134</v>
       </c>
       <c r="H25">
-        <v>23.17511045609257</v>
+        <v>17.40679030479987</v>
       </c>
       <c r="I25">
-        <v>6.343354534089296E-06</v>
+        <v>8.00831384932794E-05</v>
       </c>
       <c r="J25">
-        <v>-355.54023</v>
+        <v>-337.25404</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1440,39 +1440,39 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>240.195154159292</v>
+        <v>219.016194876033</v>
       </c>
       <c r="H26">
-        <v>23.38912999999999</v>
+        <v>17.56097114721948</v>
       </c>
       <c r="I26">
-        <v>5.69961120514968E-06</v>
+        <v>7.414146111218157E-05</v>
       </c>
       <c r="J26">
-        <v>-330.42763</v>
+        <v>-332.58399</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1482,39 +1482,39 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>240.268484159292</v>
+        <v>219.3128433333333</v>
       </c>
       <c r="H27">
-        <v>23.46245999999999</v>
+        <v>17.85761960451978</v>
       </c>
       <c r="I27">
-        <v>5.494419621472806E-06</v>
+        <v>6.392117453408076E-05</v>
       </c>
       <c r="J27">
-        <v>-330.35431</v>
+        <v>-334.52646</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~temp + wind + sundur</t>
+          <t>~wind</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1524,39 +1524,39 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>242.6404733333333</v>
+        <v>219.4146640336134</v>
       </c>
       <c r="H28">
-        <v>25.83444917404131</v>
+        <v>17.95944030479987</v>
       </c>
       <c r="I28">
-        <v>1.678227833877239E-06</v>
+        <v>6.074837459427947E-05</v>
       </c>
       <c r="J28">
-        <v>-311.19883</v>
+        <v>-336.70139</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1566,39 +1566,39 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>243.056294876033</v>
+        <v>220.2306640336134</v>
       </c>
       <c r="H29">
-        <v>26.250270716741</v>
+        <v>18.77544030479987</v>
       </c>
       <c r="I29">
-        <v>1.363190086065685E-06</v>
+        <v>4.03963860279872E-05</v>
       </c>
       <c r="J29">
-        <v>-308.5439</v>
+        <v>-335.8854</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1608,23 +1608,23 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>243.7625124561403</v>
+        <v>220.4162740336134</v>
       </c>
       <c r="H30">
-        <v>26.95648829684831</v>
+        <v>18.96105030479987</v>
       </c>
       <c r="I30">
-        <v>9.576420771075753E-07</v>
+        <v>3.681610282428589E-05</v>
       </c>
       <c r="J30">
-        <v>-324.33645</v>
+        <v>-335.69978</v>
       </c>
     </row>
     <row r="31">
@@ -1635,12 +1635,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1650,39 +1650,39 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>245.6746532786885</v>
+        <v>220.6153033333333</v>
       </c>
       <c r="H31">
-        <v>28.8686291193965</v>
+        <v>19.16007960451978</v>
       </c>
       <c r="I31">
-        <v>3.681180527256259E-07</v>
+        <v>3.332875961491427E-05</v>
       </c>
       <c r="J31">
-        <v>-303.72312</v>
+        <v>-333.224</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1692,39 +1692,39 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>246.491324876033</v>
+        <v>220.6268940336134</v>
       </c>
       <c r="H32">
-        <v>29.68530071674101</v>
+        <v>19.17167030479987</v>
       </c>
       <c r="I32">
-        <v>2.447085433735146E-07</v>
+        <v>3.313616639482223E-05</v>
       </c>
       <c r="J32">
-        <v>-305.10886</v>
+        <v>-335.48916</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1734,39 +1734,39 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~time)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F33">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>249.3427489473684</v>
+        <v>220.8558037288136</v>
       </c>
       <c r="H33">
-        <v>32.53672478807638</v>
+        <v>19.40057999999999</v>
       </c>
       <c r="I33">
-        <v>5.881258413072995E-08</v>
+        <v>2.955256312333689E-05</v>
       </c>
       <c r="J33">
-        <v>-375.79481</v>
+        <v>-337.57559</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1776,39 +1776,39 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>252.9542332786885</v>
+        <v>221.0454433333333</v>
       </c>
       <c r="H34">
-        <v>36.14820911939651</v>
+        <v>19.59021960451977</v>
       </c>
       <c r="I34">
-        <v>9.66599138520304E-09</v>
+        <v>2.687914417318939E-05</v>
       </c>
       <c r="J34">
-        <v>-296.44354</v>
+        <v>-332.79386</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1818,39 +1818,39 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>253.0424632520325</v>
+        <v>221.1136037288136</v>
       </c>
       <c r="H35">
-        <v>36.23643909274048</v>
+        <v>19.65837999999999</v>
       </c>
       <c r="I35">
-        <v>9.248845153900314E-09</v>
+        <v>2.597853132379959E-05</v>
       </c>
       <c r="J35">
-        <v>-294.18871</v>
+        <v>-337.31779</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~wind</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1860,64 +1860,2332 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G36">
-        <v>254.112534876033</v>
+        <v>221.6889337288136</v>
       </c>
       <c r="H36">
-        <v>37.306510716741</v>
+        <v>20.23371</v>
       </c>
       <c r="I36">
-        <v>5.41657059424297E-09</v>
+        <v>1.948423113360663E-05</v>
       </c>
       <c r="J36">
-        <v>-297.48765</v>
+        <v>-336.74247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>222.0827337288136</v>
+      </c>
+      <c r="H37">
+        <v>20.62751</v>
+      </c>
+      <c r="I37">
+        <v>1.600186821103108E-05</v>
+      </c>
+      <c r="J37">
+        <v>-336.34867</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>222.9426037288136</v>
+      </c>
+      <c r="H38">
+        <v>21.48738</v>
+      </c>
+      <c r="I38">
+        <v>1.041003743428214E-05</v>
+      </c>
+      <c r="J38">
+        <v>-335.48879</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>223.0650540336134</v>
+      </c>
+      <c r="H39">
+        <v>21.60983030479989</v>
+      </c>
+      <c r="I39">
+        <v>9.791800249575471E-06</v>
+      </c>
+      <c r="J39">
+        <v>-333.05101</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>223.1735840336135</v>
+      </c>
+      <c r="H40">
+        <v>21.71836030479989</v>
+      </c>
+      <c r="I40">
+        <v>9.274607840139041E-06</v>
+      </c>
+      <c r="J40">
+        <v>-332.94247</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>223.2112018803419</v>
+      </c>
+      <c r="H41">
+        <v>21.75597815152832</v>
+      </c>
+      <c r="I41">
+        <v>9.101792779439704E-06</v>
+      </c>
+      <c r="J41">
+        <v>-337.57511</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>223.4635318803419</v>
+      </c>
+      <c r="H42">
+        <v>22.00830815152833</v>
+      </c>
+      <c r="I42">
+        <v>8.022951750442873E-06</v>
+      </c>
+      <c r="J42">
+        <v>-337.32278</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>224.5957533333333</v>
+      </c>
+      <c r="H43">
+        <v>23.14052960451977</v>
+      </c>
+      <c r="I43">
+        <v>4.554864015425208E-06</v>
+      </c>
+      <c r="J43">
+        <v>-329.24355</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>224.6124733333333</v>
+      </c>
+      <c r="H44">
+        <v>23.15724960451976</v>
+      </c>
+      <c r="I44">
+        <v>4.516944078443367E-06</v>
+      </c>
+      <c r="J44">
+        <v>-329.22683</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>224.682844876033</v>
+      </c>
+      <c r="H45">
+        <v>23.22762114721948</v>
+      </c>
+      <c r="I45">
+        <v>4.360775484677228E-06</v>
+      </c>
+      <c r="J45">
+        <v>-326.91735</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>224.8602133333333</v>
+      </c>
+      <c r="H46">
+        <v>23.40498960451978</v>
+      </c>
+      <c r="I46">
+        <v>3.990696098064368E-06</v>
+      </c>
+      <c r="J46">
+        <v>-328.97909</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>225.4517740336134</v>
+      </c>
+      <c r="H47">
+        <v>23.99655030479988</v>
+      </c>
+      <c r="I47">
+        <v>2.96888162961044E-06</v>
+      </c>
+      <c r="J47">
+        <v>-330.66428</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>225.961244876033</v>
+      </c>
+      <c r="H48">
+        <v>24.50602114721949</v>
+      </c>
+      <c r="I48">
+        <v>2.301244135129263E-06</v>
+      </c>
+      <c r="J48">
+        <v>-325.63894</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>226.0196533333333</v>
+      </c>
+      <c r="H49">
+        <v>24.56442960451977</v>
+      </c>
+      <c r="I49">
+        <v>2.235009941944707E-06</v>
+      </c>
+      <c r="J49">
+        <v>-327.81965</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>226.1999633333333</v>
+      </c>
+      <c r="H50">
+        <v>24.74473960451976</v>
+      </c>
+      <c r="I50">
+        <v>2.042328699851295E-06</v>
+      </c>
+      <c r="J50">
+        <v>-327.63934</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>226.2357432786885</v>
+      </c>
+      <c r="H51">
+        <v>24.78051954987498</v>
+      </c>
+      <c r="I51">
+        <v>2.006116379732014E-06</v>
+      </c>
+      <c r="J51">
+        <v>-323.16203</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>226.2743540336134</v>
+      </c>
+      <c r="H52">
+        <v>24.81913030479987</v>
+      </c>
+      <c r="I52">
+        <v>1.967758989042117E-06</v>
+      </c>
+      <c r="J52">
+        <v>-329.8417</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>~wind</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>~1</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>~1</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>226.4932933333333</v>
+      </c>
+      <c r="H53">
+        <v>25.03806960451976</v>
+      </c>
+      <c r="I53">
+        <v>1.763720814003085E-06</v>
+      </c>
+      <c r="J53">
+        <v>-327.34602</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>226.8371448760331</v>
+      </c>
+      <c r="H54">
+        <v>25.38192114721949</v>
+      </c>
+      <c r="I54">
+        <v>1.485126427513047E-06</v>
+      </c>
+      <c r="J54">
+        <v>-324.76304</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>226.8733940336134</v>
+      </c>
+      <c r="H55">
+        <v>25.41817030479987</v>
+      </c>
+      <c r="I55">
+        <v>1.458451601774742E-06</v>
+      </c>
+      <c r="J55">
+        <v>-329.24266</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>226.8920533333333</v>
+      </c>
+      <c r="H56">
+        <v>25.43682960451977</v>
+      </c>
+      <c r="I56">
+        <v>1.444908035596179E-06</v>
+      </c>
+      <c r="J56">
+        <v>-326.94725</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57">
+        <v>227.1389640336134</v>
+      </c>
+      <c r="H57">
+        <v>25.68374030479987</v>
+      </c>
+      <c r="I57">
+        <v>1.277098012441774E-06</v>
+      </c>
+      <c r="J57">
+        <v>-328.9771</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>227.628214876033</v>
+      </c>
+      <c r="H58">
+        <v>26.17299114721948</v>
+      </c>
+      <c r="I58">
+        <v>9.999649056190168E-07</v>
+      </c>
+      <c r="J58">
+        <v>-323.97198</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>227.6709833333333</v>
+      </c>
+      <c r="H59">
+        <v>26.21575960451977</v>
+      </c>
+      <c r="I59">
+        <v>9.788084409792094E-07</v>
+      </c>
+      <c r="J59">
+        <v>-326.16832</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60">
+        <v>227.7916540336134</v>
+      </c>
+      <c r="H60">
+        <v>26.33643030479988</v>
+      </c>
+      <c r="I60">
+        <v>9.214979985827352E-07</v>
+      </c>
+      <c r="J60">
+        <v>-328.3244</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>227.8616833333333</v>
+      </c>
+      <c r="H61">
+        <v>26.40645960451977</v>
+      </c>
+      <c r="I61">
+        <v>8.897904231014338E-07</v>
+      </c>
+      <c r="J61">
+        <v>-325.97762</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>228.130604876033</v>
+      </c>
+      <c r="H62">
+        <v>26.67538114721947</v>
+      </c>
+      <c r="I62">
+        <v>7.778433730979772E-07</v>
+      </c>
+      <c r="J62">
+        <v>-323.46958</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <v>228.2497240336134</v>
+      </c>
+      <c r="H63">
+        <v>26.79450030479987</v>
+      </c>
+      <c r="I63">
+        <v>7.328680010117666E-07</v>
+      </c>
+      <c r="J63">
+        <v>-327.86634</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>228.7197033333333</v>
+      </c>
+      <c r="H64">
+        <v>27.26447960451978</v>
+      </c>
+      <c r="I64">
+        <v>5.793900749629684E-07</v>
+      </c>
+      <c r="J64">
+        <v>-325.1196</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <v>228.7345740336134</v>
+      </c>
+      <c r="H65">
+        <v>27.27935030479986</v>
+      </c>
+      <c r="I65">
+        <v>5.750980828932154E-07</v>
+      </c>
+      <c r="J65">
+        <v>-327.38148</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>228.8490133333333</v>
+      </c>
+      <c r="H66">
+        <v>27.39378960451978</v>
+      </c>
+      <c r="I66">
+        <v>5.431149301840942E-07</v>
+      </c>
+      <c r="J66">
+        <v>-324.9903</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>~temp + wind + sundur</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67">
+        <v>229.1407740336134</v>
+      </c>
+      <c r="H67">
+        <v>27.68555030479988</v>
+      </c>
+      <c r="I67">
+        <v>4.693931100932574E-07</v>
+      </c>
+      <c r="J67">
+        <v>-326.97528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>~temp + sundur</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68">
+        <v>229.2762333333333</v>
+      </c>
+      <c r="H68">
+        <v>27.82100960451976</v>
+      </c>
+      <c r="I68">
+        <v>4.386540034718934E-07</v>
+      </c>
+      <c r="J68">
+        <v>-324.56307</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <v>229.4708433333333</v>
+      </c>
+      <c r="H69">
+        <v>28.01561960451977</v>
+      </c>
+      <c r="I69">
+        <v>3.9798167254219E-07</v>
+      </c>
+      <c r="J69">
+        <v>-324.36847</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70">
+        <v>230.0624237288136</v>
+      </c>
+      <c r="H70">
+        <v>28.60720000000001</v>
+      </c>
+      <c r="I70">
+        <v>2.96075875491371E-07</v>
+      </c>
+      <c r="J70">
+        <v>-328.36897</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71">
+        <v>230.7444340336134</v>
+      </c>
+      <c r="H71">
+        <v>29.28921030479987</v>
+      </c>
+      <c r="I71">
+        <v>2.105263040546424E-07</v>
+      </c>
+      <c r="J71">
+        <v>-325.37162</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72">
+        <v>233.8387548760331</v>
+      </c>
+      <c r="H72">
+        <v>32.38353114721949</v>
+      </c>
+      <c r="I72">
+        <v>4.481084490890725E-08</v>
+      </c>
+      <c r="J72">
+        <v>-317.76143</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73">
+        <v>235.158834876033</v>
+      </c>
+      <c r="H73">
+        <v>33.70361114721948</v>
+      </c>
+      <c r="I73">
+        <v>2.315961858759795E-08</v>
+      </c>
+      <c r="J73">
+        <v>-316.44135</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74">
+        <v>236.5173133333333</v>
+      </c>
+      <c r="H74">
+        <v>35.06208960451977</v>
+      </c>
+      <c r="I74">
+        <v>1.174198588252194E-08</v>
+      </c>
+      <c r="J74">
+        <v>-317.32199</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <v>237.152444876033</v>
+      </c>
+      <c r="H75">
+        <v>35.69722114721947</v>
+      </c>
+      <c r="I75">
+        <v>8.547212308419887E-09</v>
+      </c>
+      <c r="J75">
+        <v>-314.44774</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76">
+        <v>238.6242833333333</v>
+      </c>
+      <c r="H76">
+        <v>37.16905960451976</v>
+      </c>
+      <c r="I76">
+        <v>4.094669293087947E-09</v>
+      </c>
+      <c r="J76">
+        <v>-315.21502</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>240.5256732786885</v>
+      </c>
+      <c r="H77">
+        <v>39.07044954987498</v>
+      </c>
+      <c r="I77">
+        <v>1.582476432986329E-09</v>
+      </c>
+      <c r="J77">
+        <v>-308.8721</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>242.187594876033</v>
+      </c>
+      <c r="H78">
+        <v>40.73237114721948</v>
+      </c>
+      <c r="I78">
+        <v>6.893750502965947E-10</v>
+      </c>
+      <c r="J78">
+        <v>-309.41259</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>~temp + wind + sundur</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <v>242.6404733333333</v>
+      </c>
+      <c r="H79">
+        <v>41.18524960451978</v>
+      </c>
+      <c r="I79">
+        <v>5.496854658221972E-10</v>
+      </c>
+      <c r="J79">
+        <v>-311.19883</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>243.0006132786885</v>
+      </c>
+      <c r="H80">
+        <v>41.54538954987498</v>
+      </c>
+      <c r="I80">
+        <v>4.591037694030161E-10</v>
+      </c>
+      <c r="J80">
+        <v>-306.39717</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>~temp + sundur</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>243.056294876033</v>
+      </c>
+      <c r="H81">
+        <v>41.60107114721947</v>
+      </c>
+      <c r="I81">
+        <v>4.464982419770958E-10</v>
+      </c>
+      <c r="J81">
+        <v>-308.5439</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82">
+        <v>243.0803633333333</v>
+      </c>
+      <c r="H82">
+        <v>41.62513960451977</v>
+      </c>
+      <c r="I82">
+        <v>4.411571822668634E-10</v>
+      </c>
+      <c r="J82">
+        <v>-310.75894</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83">
+        <v>243.296614876033</v>
+      </c>
+      <c r="H83">
+        <v>41.84139114721947</v>
+      </c>
+      <c r="I83">
+        <v>3.959450594898841E-10</v>
+      </c>
+      <c r="J83">
+        <v>-308.30357</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84">
+        <v>243.4202548760331</v>
+      </c>
+      <c r="H84">
+        <v>41.96503114721949</v>
+      </c>
+      <c r="I84">
+        <v>3.722089771104736E-10</v>
+      </c>
+      <c r="J84">
+        <v>-308.17993</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85">
+        <v>245.0241833333333</v>
+      </c>
+      <c r="H85">
+        <v>43.56895960451976</v>
+      </c>
+      <c r="I85">
+        <v>1.669160905446889E-10</v>
+      </c>
+      <c r="J85">
+        <v>-308.81512</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>245.6746532786885</v>
+      </c>
+      <c r="H86">
+        <v>44.21942954987497</v>
+      </c>
+      <c r="I86">
+        <v>1.205731064670492E-10</v>
+      </c>
+      <c r="J86">
+        <v>-303.72312</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87">
+        <v>246.491324876033</v>
+      </c>
+      <c r="H87">
+        <v>45.03610114721948</v>
+      </c>
+      <c r="I87">
+        <v>8.015164981751888E-11</v>
+      </c>
+      <c r="J87">
+        <v>-305.10886</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>252.9542332786885</v>
+      </c>
+      <c r="H88">
+        <v>51.49900954987498</v>
+      </c>
+      <c r="I88">
+        <v>3.165991452384252E-12</v>
+      </c>
+      <c r="J88">
+        <v>-296.44354</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>253.0424632520325</v>
+      </c>
+      <c r="H89">
+        <v>51.58723952321895</v>
+      </c>
+      <c r="I89">
+        <v>3.029359693667761E-12</v>
+      </c>
+      <c r="J89">
+        <v>-294.18871</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90">
+        <v>254.112534876033</v>
+      </c>
+      <c r="H90">
+        <v>52.65731114721947</v>
+      </c>
+      <c r="I90">
+        <v>1.774139404765144E-12</v>
+      </c>
+      <c r="J90">
+        <v>-297.48765</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="F37">
+      <c r="F91">
         <v>5</v>
       </c>
-      <c r="G37">
+      <c r="G91">
         <v>254.3844032786885</v>
       </c>
-      <c r="H37">
-        <v>37.57837911939649</v>
-      </c>
-      <c r="I37">
-        <v>4.728124830641242E-09</v>
-      </c>
-      <c r="J37">
+      <c r="H91">
+        <v>52.92917954987496</v>
+      </c>
+      <c r="I91">
+        <v>1.548646403982024E-12</v>
+      </c>
+      <c r="J91">
         <v>-295.01338</v>
       </c>
     </row>
